--- a/Income/PGR_inc.xlsx
+++ b/Income/PGR_inc.xlsx
@@ -1673,7 +1673,7 @@
         <v>0.1457</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.1248</v>
+        <v>0.1247</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.1423</v>
@@ -1800,7 +1800,7 @@
         <v>0.1457</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.1248</v>
+        <v>0.1247</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.1423</v>
@@ -1924,13 +1924,13 @@
         <v>0.1527</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1355</v>
+        <v>0.1354</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1145</v>
+        <v>0.1144</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1323</v>
+        <v>0.1322</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1119</v>
@@ -2048,16 +2048,16 @@
         <v>0.1333</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.121</v>
+        <v>0.1205</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1084</v>
+        <v>0.1079</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0917</v>
+        <v>0.0911</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1016</v>
+        <v>0.1011</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0865</v>
@@ -2175,7 +2175,7 @@
         <v>0.1572</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1491</v>
+        <v>0.149</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.161</v>
